--- a/data/Parametrization/Parametrization_sources.xlsx
+++ b/data/Parametrization/Parametrization_sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/data/Parametrization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="11_23B978009FC0331F04D6ADB6C5114B37B32BAA43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D926CBE2-7CD1-4C0B-BBCE-FD5758ADC94E}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="11_23B978009FC0331F04D6ADB6C5114B37B32BAA43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DF5E170-0C5C-4CA6-845E-AE8EC3D6B6C1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -816,7 +816,6 @@
     <xf numFmtId="11" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -2414,6 +2413,10 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10948,40 +10951,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3A8E45-A2BD-49EC-AF36-3D830118B82B}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="95.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11066,7 +11070,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
@@ -11086,7 +11090,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="B7" t="s">
@@ -11106,7 +11110,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
@@ -11126,7 +11130,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -11146,7 +11150,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+      <c r="A10" t="s">
         <v>86</v>
       </c>
       <c r="B10" t="s">
@@ -11169,7 +11173,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
@@ -11189,7 +11193,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
@@ -11209,7 +11213,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
@@ -11229,7 +11233,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
@@ -11249,7 +11253,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
@@ -11269,7 +11273,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
@@ -11289,7 +11293,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
@@ -11309,159 +11313,159 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
+      <c r="A18" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="43" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="43" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+      <c r="A20" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="43" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+      <c r="A21" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="43" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="43" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="43" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="43">
         <v>0.44700000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="43" t="s">
         <v>121</v>
       </c>
       <c r="F25">
@@ -11469,19 +11473,19 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="43" t="s">
         <v>121</v>
       </c>
       <c r="F26">
@@ -11489,19 +11493,19 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="43" t="s">
         <v>121</v>
       </c>
       <c r="F27">
@@ -11509,19 +11513,19 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="43" t="s">
         <v>121</v>
       </c>
       <c r="F28">
@@ -11529,19 +11533,19 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="43" t="s">
         <v>121</v>
       </c>
       <c r="F29">
@@ -11549,19 +11553,19 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="43" t="s">
         <v>121</v>
       </c>
       <c r="F30">
@@ -11569,19 +11573,19 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E31" s="43" t="s">
         <v>121</v>
       </c>
       <c r="F31">
@@ -11589,19 +11593,19 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="43" t="s">
         <v>121</v>
       </c>
       <c r="F32">
@@ -11609,19 +11613,19 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="43" t="s">
         <v>121</v>
       </c>
       <c r="F33">
@@ -11629,19 +11633,19 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="43" t="s">
         <v>121</v>
       </c>
       <c r="F34">
@@ -11649,19 +11653,19 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="44" t="s">
+      <c r="E35" s="43" t="s">
         <v>121</v>
       </c>
       <c r="F35">
@@ -11669,42 +11673,42 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="43" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="43" t="s">
         <v>83</v>
       </c>
     </row>
@@ -11774,25 +11778,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11817,7 +11821,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>103</v>
       </c>
     </row>
@@ -11830,7 +11834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
